--- a/data/income_statement/1digit/size/C_IS_MICRO.xlsx
+++ b/data/income_statement/1digit/size/C_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>C-Manufacturing</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>C-Manufacturing</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,2078 +841,2346 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>14247356.82259</v>
+        <v>15797959.13889</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>15118150.39088</v>
+        <v>16813366.86763</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>16592752.32246</v>
+        <v>18379111.76144</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>15337535.37764</v>
+        <v>17329453.39284</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>15615982.00427</v>
+        <v>18042102.9201</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>15388276.62135</v>
+        <v>18206035.25121</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>15528543.96735</v>
+        <v>19008180.07328</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>16778085.06955</v>
+        <v>20795157.53713001</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>17384708.74283</v>
+        <v>21822878.9569</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>48875240.33229998</v>
+        <v>55575238.69054002</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>51320821.23542</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>61065583.58533</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>67855420.219</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>13022116.16801</v>
+        <v>14395152.10996</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>13934118.02781</v>
+        <v>15433144.7711</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>14907805.21091</v>
+        <v>16509726.23913</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>14052529.65476</v>
+        <v>15830142.53691</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>14286884.77417</v>
+        <v>16466132.62149</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>14162709.17883</v>
+        <v>16698589.62204</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>14207854.72067</v>
+        <v>17357843.9695</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>15330768.59544</v>
+        <v>18962924.77279</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>15859423.87648</v>
+        <v>19884319.95688</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>43583077.97482001</v>
+        <v>49513944.60272</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>45327388.54139001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>53907903.20677</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>59991413.654</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>1062101.36445</v>
+        <v>1184100.63473</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>1018188.48531</v>
+        <v>1148368.76672</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>1494346.05658</v>
+        <v>1614920.90762</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>1113618.05449</v>
+        <v>1242860.60523</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>1174430.00664</v>
+        <v>1332646.12234</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>1063961.54218</v>
+        <v>1241731.40407</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>1141116.88732</v>
+        <v>1349115.88453</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>1250821.18753</v>
+        <v>1485848.66657</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>1311014.9758</v>
+        <v>1549422.10541</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>4699674.87425</v>
+        <v>5216580.51393</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>5301976.482950002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>6133997.398060001</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>6772506.286</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>163139.29013</v>
+        <v>218706.3942</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>165843.87776</v>
+        <v>231853.32981</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>190601.05497</v>
+        <v>254464.61469</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>171387.66839</v>
+        <v>256450.2507</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>154667.22346</v>
+        <v>243324.1762700001</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>161605.90034</v>
+        <v>265714.2251</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>179572.35936</v>
+        <v>301220.21925</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>196495.28658</v>
+        <v>346384.09777</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>214269.89055</v>
+        <v>389136.8946100001</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>592487.4832299999</v>
+        <v>844713.5738900002</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>691456.2110800002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>1023682.9805</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>1091500.279</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>134322.66739</v>
+        <v>163821.58382</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>127931.7256</v>
+        <v>156016.18044</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>125334.87543</v>
+        <v>148497.76769</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>117395.57362</v>
+        <v>154402.56041</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>115172.79239</v>
+        <v>143711.18269</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>114178.05241</v>
+        <v>146782.33524</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>108790.82218</v>
+        <v>155489.39078</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>116647.80491</v>
+        <v>167677.88691</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>116266.06038</v>
+        <v>205638.97554</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>371236.7198099999</v>
+        <v>806094.7962099999</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>398837.64355</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>583133.6691000001</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>2297427.592</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>109096.18866</v>
+        <v>130558.86392</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>104441.46183</v>
+        <v>123387.04801</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>103494.64954</v>
+        <v>122274.40198</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>96780.55752</v>
+        <v>129268.26308</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>96452.82468999999</v>
+        <v>119893.03373</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>89110.26015</v>
+        <v>115398.7673</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>91830.86590999999</v>
+        <v>131894.63178</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>96763.05978999997</v>
+        <v>138182.94925</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>93013.29555000001</v>
+        <v>174937.05722</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>308957.0255100001</v>
+        <v>716651.7158</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>333814.57631</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>497978.2001200001</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>2181501.879</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>19553.31873</v>
+        <v>25397.94198</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>18531.93322</v>
+        <v>25948.79993</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>15922.24324</v>
+        <v>18852.2589</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>14867.6893</v>
+        <v>18110.48503</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>12694.40227</v>
+        <v>15920.52206</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>18639.78625</v>
+        <v>23485.33178</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>12533.89308</v>
+        <v>16108.57867</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>14428.37707</v>
+        <v>21036.55795</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>12575.28263</v>
+        <v>17685.46573</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>36311.20019</v>
+        <v>54685.42351000001</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>36108.2765</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>46741.51438</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>73886.298</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>5673.159999999998</v>
+        <v>7864.77792</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>4958.330550000001</v>
+        <v>6680.3325</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>5917.982650000002</v>
+        <v>7371.106809999999</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>5747.326800000001</v>
+        <v>7023.8123</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>6025.56543</v>
+        <v>7897.6269</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>6428.006010000001</v>
+        <v>7898.23616</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>4426.063190000001</v>
+        <v>7486.18033</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>5456.36805</v>
+        <v>8458.379709999999</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>10677.4822</v>
+        <v>13016.45259</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>25968.49411</v>
+        <v>34757.6569</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>28914.79074</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>38413.9546</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>42039.415</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>14113034.1552</v>
+        <v>15634137.55507</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>14990218.66528</v>
+        <v>16657350.68719</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>16467417.44703</v>
+        <v>18230613.99375</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>15220139.80402</v>
+        <v>17175050.83243</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>15500809.21188</v>
+        <v>17898391.73741001</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>15274098.56894</v>
+        <v>18059252.91597</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>15419753.14517</v>
+        <v>18852690.6825</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>16661437.26464</v>
+        <v>20627479.65022</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>17268442.68245</v>
+        <v>21617239.98136</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>48504003.61249</v>
+        <v>54769143.89433</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>50921983.59187001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>60482449.91623</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>65557992.627</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>11705094.68654</v>
+        <v>12929293.82755</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>12465138.60242</v>
+        <v>13788955.8411</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>13769570.76031</v>
+        <v>15179189.80569</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>12532285.77783</v>
+        <v>14077563.62382</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>12823261.08292</v>
+        <v>14714622.44133</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>12559642.93957</v>
+        <v>14738927.23927</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>12638467.98693</v>
+        <v>15331775.99307</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>13703804.58176</v>
+        <v>16784020.64634</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>14207538.2797</v>
+        <v>17553939.90453</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>40456406.29060999</v>
+        <v>45476482.66903999</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>42305824.66006</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>50034938.84225</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>54340234.792</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>5161099.73204</v>
+        <v>5848181.08718</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>5306976.400580001</v>
+        <v>6055208.05391</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>5905041.850170001</v>
+        <v>6685839.56596</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>5570742.89799</v>
+        <v>6420818.918769999</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>5773273.254000001</v>
+        <v>6880733.455010002</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>5873259.80302</v>
+        <v>7180955.086139999</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>5872348.553269999</v>
+        <v>7465456.611630001</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>6269263.39699</v>
+        <v>8116518.786760001</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>6358257.186490001</v>
+        <v>8349821.500130002</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>20146821.3133</v>
+        <v>22846409.09935</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>21224585.09353999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>25491191.11456</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>26333772.904</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>5561726.7199</v>
+        <v>5995792.409290001</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>6049588.10296</v>
+        <v>6497570.532799999</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>6654126.454259999</v>
+        <v>7140418.18583</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>5741229.259679999</v>
+        <v>6266792.914929998</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>5788037.051620001</v>
+        <v>6386217.56239</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>5359341.82881</v>
+        <v>6005972.318930001</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>5426515.37383</v>
+        <v>6247665.01093</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>5943873.283290001</v>
+        <v>6825582.24729</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>6251320.38571</v>
+        <v>7190024.752280002</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>16620941.93864</v>
+        <v>18458852.17661</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>16952494.22065</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>19622413.86281</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>22802197.359</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>940855.5915099999</v>
+        <v>1035258.15411</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>1076716.51906</v>
+        <v>1189493.6196</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>1167882.38021</v>
+        <v>1295809.05255</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>1179205.93719</v>
+        <v>1327705.57874</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>1216249.12223</v>
+        <v>1388326.64806</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>1259232.08788</v>
+        <v>1461889.80308</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>1275903.42615</v>
+        <v>1529822.57452</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>1433622.21497</v>
+        <v>1746043.54568</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>1531578.73423</v>
+        <v>1904797.50685</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>3501769.67217</v>
+        <v>3923882.68163</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>3888791.00761</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>4606111.058569999</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>4894575.506</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>41412.64309</v>
+        <v>50062.17697</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>31857.57982</v>
+        <v>46683.63479</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>42520.07567</v>
+        <v>57123.00134999999</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>41107.68296999999</v>
+        <v>62246.21137999999</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>45701.65506999999</v>
+        <v>59344.77587</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>67809.21986000001</v>
+        <v>90110.03112</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>63700.63368000001</v>
+        <v>88831.79599</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>57045.68651</v>
+        <v>95876.06660999999</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>66381.97327</v>
+        <v>109296.14527</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>186873.3665</v>
+        <v>247338.7114499999</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>239954.33826</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>315222.80631</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>309689.023</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>2407939.46866</v>
+        <v>2704843.727520001</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>2525080.06286</v>
+        <v>2868394.846090001</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>2697846.686720001</v>
+        <v>3051424.18806</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>2687854.02619</v>
+        <v>3097487.20861</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>2677548.12896</v>
+        <v>3183769.296079999</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>2714455.62937</v>
+        <v>3320325.6767</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>2781285.15824</v>
+        <v>3520914.68943</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>2957632.682880001</v>
+        <v>3843459.00388</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>3060904.40275</v>
+        <v>4063300.076830001</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>8047597.321879998</v>
+        <v>9292661.225289997</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>8616158.931810001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>10447511.07398</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>11217757.835</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>2062803.14632</v>
+        <v>2489427.89838</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>2132731.21782</v>
+        <v>2600681.45826</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>2285786.46669</v>
+        <v>2818478.31054</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>2344776.736310001</v>
+        <v>2942585.13277</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>2388438.35397</v>
+        <v>3064519.15966</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>2421795.700900001</v>
+        <v>3216536.821169999</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>2490462.50156</v>
+        <v>3426295.12267</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>2770798.63525</v>
+        <v>3939899.34335</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>2814890.73232</v>
+        <v>4124643.15984</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>6369821.51677</v>
+        <v>7787681.41475</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>7138804.571249999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>9229098.06542</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>9513824.973999999</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>10063.23613</v>
+        <v>11904.05498</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>11454.2366</v>
+        <v>13896.07025</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>12162.29861</v>
+        <v>13828.97675</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>12055.58105</v>
+        <v>16567.99529</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>10876.98018</v>
+        <v>17099.16809</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>13878.6366</v>
+        <v>17040.28819</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>16390.42665</v>
+        <v>20784.27347</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>17225.81469</v>
+        <v>23880.94539</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>18091.91525</v>
+        <v>23409.24303</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>37838.21899</v>
+        <v>44472.96917999999</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>40509.43218</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>50292.45384</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>60787.751</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>355500.1961700001</v>
+        <v>410758.68555</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>369001.8262300001</v>
+        <v>430774.63613</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>393443.39581</v>
+        <v>453878.66598</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>406120.7548699999</v>
+        <v>475624.6412599999</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>429524.5103200001</v>
+        <v>521140.58868</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>402273.02512</v>
+        <v>511391.22843</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>398981.11709</v>
+        <v>521200.62546</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>454849.48458</v>
+        <v>612566.3356</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>445958.26972</v>
+        <v>612406.9541900001</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>1185919.62427</v>
+        <v>1370891.07649</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>1334395.40907</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1660748.27008</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>1578413.488</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>1697239.71402</v>
+        <v>2066765.15785</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>1752275.15499</v>
+        <v>2156010.751880001</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>1880180.77227</v>
+        <v>2350770.66781</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>1926600.40039</v>
+        <v>2450392.49622</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>1948036.86347</v>
+        <v>2526279.40289</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>2005644.03918</v>
+        <v>2688105.30455</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>2075090.95782</v>
+        <v>2884310.223740001</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>2298723.33598</v>
+        <v>3303452.06236</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>2350840.547350001</v>
+        <v>3488826.96262</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>5146063.67351</v>
+        <v>6372317.369079999</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>5763899.729999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>7518057.3415</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>7874623.735</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>345136.32234</v>
+        <v>215415.82914</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>392348.84504</v>
+        <v>267713.38783</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>412060.22003</v>
+        <v>232945.87752</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>343077.2898800001</v>
+        <v>154902.07584</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>289109.7749899999</v>
+        <v>119250.13642</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>292659.92847</v>
+        <v>103788.85553</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>290822.65668</v>
+        <v>94619.56676</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>186834.04763</v>
+        <v>-96440.33946999999</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>246013.6704300001</v>
+        <v>-61343.08301</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>1677775.80511</v>
+        <v>1504979.81054</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1477354.36056</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1218413.00856</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>1703932.861</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>118077.15806</v>
+        <v>878988.1987599998</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>105827.87185</v>
+        <v>1057525.25755</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>129817.97468</v>
+        <v>1290041.56216</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>100459.80911</v>
+        <v>1670089.38272</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>102529.83502</v>
+        <v>1544377.13519</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>91308.07676000001</v>
+        <v>1363956.80658</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>131151.80611</v>
+        <v>1793832.46941</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>150018.60197</v>
+        <v>2956544.961909999</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>146769.79436</v>
+        <v>2494184.262070001</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>812780.70388</v>
+        <v>7125118.581320001</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>498468.2688500001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>10365935.031</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>5409094.422</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>970.01345</v>
+        <v>57909.31376999999</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>129.08291</v>
+        <v>63629.34272</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>265.32553</v>
+        <v>75961.87567000002</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>299.31301</v>
+        <v>74698.50010999998</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>478.73804</v>
+        <v>110215.15435</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>473.84158</v>
+        <v>91940.38814999998</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>624.9743199999999</v>
+        <v>146963.4179</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>462.15802</v>
+        <v>122363.05842</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>705.72851</v>
+        <v>208227.06982</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>2369.72867</v>
+        <v>282927.99184</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>5037.295710000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>4975082.084729999</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>454282.362</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>121.50614</v>
+        <v>329260.90525</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>69.33962</v>
+        <v>401698.8707599999</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>84.49755999999999</v>
+        <v>393833.6935599999</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>219.94644</v>
+        <v>517770.6069900001</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>441.4497699999999</v>
+        <v>504517.01446</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>119.89534</v>
+        <v>234090.96422</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>8.16709</v>
+        <v>387817.19247</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>11.47727</v>
+        <v>1427679.38973</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>96.04514999999999</v>
+        <v>872766.9650099999</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>322.47297</v>
+        <v>2386030.88591</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>1089.37641</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>2681348.29134</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>306167.698</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>10747.09598</v>
+        <v>75977.09517</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>8819.33548</v>
+        <v>88779.70421</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>8290.28321</v>
+        <v>74564.17289</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>9953.440140000002</v>
+        <v>106048.70251</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>8690.50814</v>
+        <v>79740.42337</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>10356.53299</v>
+        <v>97780.50191000001</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>10576.01248</v>
+        <v>122989.20447</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>12438.39522</v>
+        <v>114923.21241</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>10941.39276</v>
+        <v>160732.24728</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>52178.69106</v>
+        <v>364376.26269</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>63244.80343999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>302861.5263900001</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>259304.182</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>4515.96908</v>
+        <v>10232.89274</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>5313.76249</v>
+        <v>11748.80913</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>7365.055250000001</v>
+        <v>10458.31309</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>4689.19934</v>
+        <v>5347.79303</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>3392.19994</v>
+        <v>4809.329769999999</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>4840.06103</v>
+        <v>8538.389950000001</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>3810.7294</v>
+        <v>4899.434029999999</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>3125.50878</v>
+        <v>4179.675429999999</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>5270.51886</v>
+        <v>18387.78945999999</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>6432.147249999999</v>
+        <v>11191.06854</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>5623.04391</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>18022.32038</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>16885.094</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>3383.65884</v>
+        <v>14594.84886</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>2988.74965</v>
+        <v>17042.6939</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>2464.0347</v>
+        <v>73570.37359999999</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>2843.46964</v>
+        <v>102697.66704</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>4058.24952</v>
+        <v>79063.62705999998</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>1834.22355</v>
+        <v>69929.31206</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>811.7344000000001</v>
+        <v>87811.24633000001</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>1957.91572</v>
+        <v>109016.72639</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>4150.216780000001</v>
+        <v>72806.41332000001</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>9812.752379999998</v>
+        <v>90698.82858</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>6829.38508</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>72620.91183000001</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>111431.361</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>1280.02574</v>
+        <v>5739.371520000001</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>1062.51935</v>
+        <v>46279.76242000001</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>890.5963799999998</v>
+        <v>30839.38961</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>1701.25807</v>
+        <v>97254.33425000001</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>1764.45394</v>
+        <v>8756.84332</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>1292.89189</v>
+        <v>3972.334430000001</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>784.19044</v>
+        <v>16278.82413</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>2676.7303</v>
+        <v>52127.65317000001</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>1373.51514</v>
+        <v>21192.73805</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>3681.049600000001</v>
+        <v>47897.1439</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>4866.61159</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>69581.35107999998</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>34113.718</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>53534.63873000001</v>
+        <v>248232.37059</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>40744.56059</v>
+        <v>271662.61944</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>51195.60748000001</v>
+        <v>431189.03217</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>27687.79929</v>
+        <v>486403.4090100001</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>40807.63085</v>
+        <v>569256.88763</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>33596.67993</v>
+        <v>570937.31099</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>64096.57248</v>
+        <v>779926.8839400001</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>69041.66274000001</v>
+        <v>852436.2756499999</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>71330.63467</v>
+        <v>845555.0292700001</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>586724.02247</v>
+        <v>3369884.98375</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>245180.5687000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>1755452.27603</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>3689622.718</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>593.7763200000001</v>
+        <v>1923.15554</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>220.59857</v>
+        <v>224.82452</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>89.53888000000001</v>
+        <v>580.6773499999999</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>61.49812</v>
+        <v>311.56785</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>125.76385</v>
+        <v>665.0527099999999</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>109.88034</v>
+        <v>834.62596</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>60.4261</v>
+        <v>567.13099</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>164.8365</v>
+        <v>365.76946</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>80.24315000000001</v>
+        <v>451.4117900000001</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>211.1275</v>
+        <v>1759.37407</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>631.0163599999998</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>1931.05443</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>3768.97</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>6368.34602</v>
+        <v>7800.3339</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>7755.160650000001</v>
+        <v>10000.06429</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>9984.79782</v>
+        <v>14064.75027</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>4792.7948</v>
+        <v>6250.633430000001</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>3700.490399999999</v>
+        <v>6026.17411</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>3195.15368</v>
+        <v>11327.89095</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>3371.83194</v>
+        <v>7057.385230000001</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>3177.71076</v>
+        <v>8454.061790000002</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>4339.973569999999</v>
+        <v>11886.92803</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>22114.12456</v>
+        <v>39577.95849</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>9347.444389999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>17652.94028</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>29907.648</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>36562.12776</v>
+        <v>127317.91142</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>38724.76253999999</v>
+        <v>146458.56616</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>49188.23787</v>
+        <v>184979.28395</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>48211.09026</v>
+        <v>273306.1684999999</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>39070.35057</v>
+        <v>181326.62841</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>35488.91643</v>
+        <v>274605.08796</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>47007.16746</v>
+        <v>239521.74992</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>56962.20666</v>
+        <v>264999.13946</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>48481.52577</v>
+        <v>282177.6700399999</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>128934.58742</v>
+        <v>530774.0835500001</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>156618.72326</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>471382.2745100001</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>503610.671</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>115556.48789</v>
+        <v>403049.58726</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>86118.87661000002</v>
+        <v>365332.68269</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>123197.05571</v>
+        <v>570853.6207999999</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>84331.04195</v>
+        <v>584376.6582000001</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>87133.59678000002</v>
+        <v>759165.9287500001</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>83531.30576999999</v>
+        <v>766683.8131699999</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>100362.13999</v>
+        <v>1044994.11815</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>116724.79629</v>
+        <v>1324394.12471</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>132277.12504</v>
+        <v>1217574.0154</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>867831.1259499999</v>
+        <v>4149532.287329999</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>409953.81734</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>2427613.96878</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>3887298.193</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>5788.488310000001</v>
+        <v>7995.778149999998</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>5243.444850000001</v>
+        <v>9788.213759999999</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>5250.57764</v>
+        <v>6652.28675</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>4228.85524</v>
+        <v>4973.351660000001</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>3140.81845</v>
+        <v>4077.77808</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>3104.3059</v>
+        <v>4086.146369999999</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>3395.67041</v>
+        <v>4411.56675</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>3542.09159</v>
+        <v>7525.87633</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>7435.934999999999</v>
+        <v>9797.116479999999</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>11158.31758</v>
+        <v>14408.4245</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>15327.60875</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>18353.67186</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>27179.5</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>18699.32623</v>
+        <v>43435.75087</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>11744.41786</v>
+        <v>26943.76711</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>15475.66976</v>
+        <v>38559.4094</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>18849.70794</v>
+        <v>66646.81311</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>20896.32797</v>
+        <v>29721.81726</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>22847.15948</v>
+        <v>32006.34553000001</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>12420.42232</v>
+        <v>44559.0295</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>24707.02198</v>
+        <v>57959.2283</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>17990.51106</v>
+        <v>47372.43478999999</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>38272.05061999999</v>
+        <v>150948.74322</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>55322.39691999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>108824.43865</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>140792.886</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>1087.23348</v>
+        <v>3585.60464</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>739.04124</v>
+        <v>4637.24813</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>405.85034</v>
+        <v>2451.67838</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>875.61574</v>
+        <v>58260.09705000001</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>1473.40016</v>
+        <v>7987.504829999999</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>1744.17703</v>
+        <v>39567.85737</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>240.90743</v>
+        <v>8817.9807</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>233.48552</v>
+        <v>5913.978</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>444.99079</v>
+        <v>7755.99523</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>1478.53556</v>
+        <v>4791.472199999999</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>41750.505</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>61816.19146</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>4766.289</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>53341.6024</v>
+        <v>252693.53922</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>37763.75322999999</v>
+        <v>245164.7175</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>49727.20559000001</v>
+        <v>420473.01401</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>26529.86623</v>
+        <v>370223.09095</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>39962.40167000001</v>
+        <v>611167.62924</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>32214.79864</v>
+        <v>590468.6985100001</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>63935.47255</v>
+        <v>906704.97322</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>62630.38651999999</v>
+        <v>1172585.52829</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>80403.23946</v>
+        <v>1010336.27801</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>613039.4358399999</v>
+        <v>3629859.15174</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>232057.5154</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>1962354.94318</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>3514154.226</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>650.1029900000001</v>
+        <v>1536.29051</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>160.41711</v>
+        <v>322.066</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>330.7159800000001</v>
+        <v>478.16818</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>223.54557</v>
+        <v>384.15708</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>48.94325</v>
+        <v>867.5103900000001</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>129.02487</v>
+        <v>867.5408900000001</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>146.28118</v>
+        <v>2004.43313</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>50.58284</v>
+        <v>229.71084</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>51.00721</v>
+        <v>399.3349700000001</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>444.7262400000001</v>
+        <v>2334.36391</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>741.7819300000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>2321.17633</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>2455.95</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>5596.04414</v>
+        <v>7436.903259999999</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>7422.12087</v>
+        <v>10045.4899</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>9991.25339</v>
+        <v>17442.79754</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>2842.768119999999</v>
+        <v>4364.01966</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>2465.38611</v>
+        <v>5238.16694</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>2471.02394</v>
+        <v>4604.692680000001</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>2328.00724</v>
+        <v>4333.614250000001</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>1477.27781</v>
+        <v>3828.00566</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>2168.6529</v>
+        <v>5463.293009999999</v>
       </c>
       <c r="L42" s="48" t="n">
-        <v>14296.51561</v>
+        <v>23840.4258</v>
       </c>
       <c r="M42" s="48" t="n">
-        <v>5773.58406</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>12394.81025</v>
+      </c>
+      <c r="N42" s="48" t="n">
+        <v>30313.399</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>30393.69034</v>
+        <v>86365.72061</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>23045.68145000001</v>
+        <v>68431.18029</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>42015.78301000001</v>
+        <v>84796.26654</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>30780.68311</v>
+        <v>79525.12868999998</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>19146.31917</v>
+        <v>100105.52201</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>21020.81591</v>
+        <v>95082.53181999999</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>17895.37886</v>
+        <v>74162.5206</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>24083.95003</v>
+        <v>76351.79728999999</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>23782.78862</v>
+        <v>136449.56291</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>189141.5445</v>
+        <v>323349.7059600001</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>58980.42528</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>261548.73705</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>167635.943</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>132367.9356</v>
+        <v>390172.82264</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>98316.39636</v>
+        <v>381919.02393</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>107770.86517</v>
+        <v>933195.9595700002</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>115856.20274</v>
+        <v>350219.26337</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>104569.10715</v>
+        <v>675565.7851999998</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>100792.3775</v>
+        <v>460592.97239</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>112703.25853</v>
+        <v>717601.1447300001</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>124628.9472</v>
+        <v>734848.2628599999</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>110403.24435</v>
+        <v>707403.07556</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>485879.03848</v>
+        <v>1919204.16574</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>516941.5051800001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>1818920.15546</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>1464875.659</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>124869.27891</v>
+        <v>263828.33438</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>93165.46864000002</v>
+        <v>193172.57093</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>101307.26986</v>
+        <v>359982.42781</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>111207.63434</v>
+        <v>268911.61332</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>100126.75611</v>
+        <v>364005.94882</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>96492.45049</v>
+        <v>347902.0142799999</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>108680.30139</v>
+        <v>510909.02254</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>120765.17128</v>
+        <v>599182.32435</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>104512.48855</v>
+        <v>635298.73448</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>464545.25982</v>
+        <v>1459044.06661</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>498434.76086</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>1682878.26454</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>1280459.626</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>7498.65669</v>
+        <v>126344.48826</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>5150.927720000001</v>
+        <v>188746.453</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>6463.59531</v>
+        <v>573213.5317599999</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>4648.568399999999</v>
+        <v>81307.65005000001</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>4442.35104</v>
+        <v>311559.8363800001</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>4299.927009999999</v>
+        <v>112690.95811</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>4022.95714</v>
+        <v>206692.12219</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>3863.77592</v>
+        <v>135665.93851</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>5890.7558</v>
+        <v>72104.34108</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>21333.77866</v>
+        <v>460160.09913</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>18506.74432</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>136041.89092</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>184416.033</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>215289.05691</v>
+        <v>301181.618</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>313741.44392</v>
+        <v>577986.93876</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>310910.27383</v>
+        <v>18937.85931</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>243349.8543</v>
+        <v>890395.5369900001</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>199936.90608</v>
+        <v>228895.55766</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>199644.32196</v>
+        <v>240468.87655</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>208909.06427</v>
+        <v>125856.77329</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>95498.90611000001</v>
+        <v>800862.23487</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>150103.0954</v>
+        <v>507864.0880999998</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>1136846.34456</v>
+        <v>2561361.93879</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>1048927.30689</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>7337813.915320002</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>1760853.431</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>82135.65373000001</v>
+        <v>306149.84562</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>92046.78285</v>
+        <v>278967.7809400001</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>92758.34047</v>
+        <v>373926.41717</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>102099.9195</v>
+        <v>385163.42433</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>88757.34453</v>
+        <v>511990.4123399999</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>101290.48953</v>
+        <v>410797.7253399999</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>95046.82202999998</v>
+        <v>608875.1671800001</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>116927.22107</v>
+        <v>825141.72196</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>120075.89531</v>
+        <v>627989.43186</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>308703.52446</v>
+        <v>781976.51058</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>376321.3758400001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>991234.0860799999</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>1454291.378</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>1285.72686</v>
+        <v>5329.528989999999</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>2110.66522</v>
+        <v>5234.15209</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>1648.0983</v>
+        <v>3322.878740000001</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>1592.42649</v>
+        <v>50820.65685</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>3410.50507</v>
+        <v>11513.51647</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>1669.98277</v>
+        <v>27393.69759</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>1026.21845</v>
+        <v>4345.27469</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>1173.00867</v>
+        <v>5991.89809</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>1888.273100000001</v>
+        <v>97118.59110999998</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>3202.24113</v>
+        <v>24835.73507</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>2514.51955</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>7007.006159999999</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>10677.533</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>80849.92687000001</v>
+        <v>300820.31663</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>89936.11763000001</v>
+        <v>273733.62885</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>91110.24216999998</v>
+        <v>370603.5384300001</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>100507.49301</v>
+        <v>334342.76748</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>85346.83945999999</v>
+        <v>500476.89587</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>99620.50675999999</v>
+        <v>383404.02775</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>94020.60358</v>
+        <v>604529.89249</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>115754.2124</v>
+        <v>819149.8238699998</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>118187.62221</v>
+        <v>530870.84075</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>305501.2833300001</v>
+        <v>757140.7755100001</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>373806.85629</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>984227.0799199999</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>1443613.845</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>127643.48737</v>
+        <v>411925.3793200001</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>135660.34517</v>
+        <v>386448.8774299999</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>691465.69964</v>
+        <v>1463216.8356</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>155361.71678</v>
+        <v>368442.1127599999</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>130382.76414</v>
+        <v>381860.87505</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>331111.11782</v>
+        <v>615405.0685800001</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>159460.08889</v>
+        <v>508670.07741</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>451185.12073</v>
+        <v>1068600.26925</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>163716.39482</v>
+        <v>401809.5723899999</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>694045.72724</v>
+        <v>1301556.1432</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>376483.4738400001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>869945.3903999998</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>1975042.957</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>9214.48775</v>
+        <v>33309.84688</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>7825.076749999999</v>
+        <v>54710.20275</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>8973.208769999999</v>
+        <v>41884.32083999999</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>8164.04205</v>
+        <v>31562.75876</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>8735.106189999999</v>
+        <v>36464.46952999999</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>9377.120570000001</v>
+        <v>32965.36531</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>11835.65861</v>
+        <v>37848.22597</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>11508.48614</v>
+        <v>44831.721</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>10915.24966</v>
+        <v>37145.63394000001</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>32216.98486999999</v>
+        <v>61743.36359</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>19951.85154</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>54868.95233</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>98929.936</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>9806.615030000001</v>
+        <v>25990.06439</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>7913.283939999999</v>
+        <v>31233.9914</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>21524.88245000001</v>
+        <v>398284.86588</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>10578.98707</v>
+        <v>31986.96963</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>10068.46715</v>
+        <v>17582.18021</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>9100.594210000001</v>
+        <v>27731.9305</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>11005.45181</v>
+        <v>24917.27743999999</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>6503.691499999998</v>
+        <v>210867.97811</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>7898.50951</v>
+        <v>16902.60049</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>12320.34864</v>
+        <v>41748.88923000002</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>15201.05999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>97420.72833</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>82866.034</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>108622.38459</v>
+        <v>352625.46805</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>119921.98448</v>
+        <v>300504.6832800001</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>660967.6084199999</v>
+        <v>1023047.64888</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>136618.68766</v>
+        <v>304892.3843699999</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>111579.1908</v>
+        <v>327814.22531</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>312633.40304</v>
+        <v>554707.7727699999</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>136618.97847</v>
+        <v>445904.574</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>433172.94309</v>
+        <v>812900.5701399999</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>144902.63565</v>
+        <v>347761.33796</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>649508.39373</v>
+        <v>1198063.89038</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>341330.5623100001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>717655.70974</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>1793246.987</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>169781.22327</v>
+        <v>195406.0843</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>270127.8816</v>
+        <v>470505.84227</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-287797.08534</v>
+        <v>-1070352.55912</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>190088.05702</v>
+        <v>907116.8485600002</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>158311.48647</v>
+        <v>359025.0949500001</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-30176.30632999999</v>
+        <v>35861.53330999997</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>144495.79741</v>
+        <v>226061.8630600001</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-238758.99355</v>
+        <v>557403.6875800003</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>106462.59589</v>
+        <v>734043.94757</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>751504.1417800002</v>
+        <v>2041782.30617</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1048765.20889</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>7459102.610999999</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>1240101.852</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>97569.80755999999</v>
+        <v>119997.15135</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>107640.50742</v>
+        <v>136204.31913</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>116766.87664</v>
+        <v>155873.1037</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>110807.00931</v>
+        <v>158846.6644899999</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>109850.65022</v>
+        <v>178458.97023</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>114355.27671</v>
+        <v>165947.51059</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>117940.38649</v>
+        <v>195938.21619</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>120468.91507</v>
+        <v>201229.88794</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>123804.61366</v>
+        <v>206926.98195</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>404957.15916</v>
+        <v>576580.3974099999</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>426788.32497</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>622553.6013499999</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>847319.04</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>72211.41571</v>
+        <v>75408.93295</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>162487.37418</v>
+        <v>334301.52314</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-404563.96198</v>
+        <v>-1226225.66282</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>79281.04771</v>
+        <v>748270.1840699998</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>48460.83624999999</v>
+        <v>180566.12472</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-144531.58304</v>
+        <v>-130085.97728</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>26555.41091999999</v>
+        <v>30123.64687000001</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-359227.9086199999</v>
+        <v>356173.7996399998</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-17342.01777</v>
+        <v>527116.96562</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>346546.98262</v>
+        <v>1465201.90876</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>621976.8839199999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>6836549.009649999</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>392782.812</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>58737</v>
+        <v>63538</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>57436</v>
+        <v>62973</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>55437</v>
+        <v>61191</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>52387</v>
+        <v>58700</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>50465</v>
+        <v>57829</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>48365</v>
+        <v>56647</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>47050</v>
+        <v>56870</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>47331</v>
+        <v>59035</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>48162</v>
+        <v>60677</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>59931</v>
+        <v>75553</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>61817</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>82155</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>88779</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>